--- a/natmiOut/YoungD4/LR-pairs_lrc2p/L1cam-Itgav.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/L1cam-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.03232220154138</v>
+        <v>7.331211666666666</v>
       </c>
       <c r="H2">
-        <v>7.03232220154138</v>
+        <v>21.993635</v>
       </c>
       <c r="I2">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366964</v>
       </c>
       <c r="J2">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366965</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N2">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q2">
-        <v>119.1549385790335</v>
+        <v>134.7658298446316</v>
       </c>
       <c r="R2">
-        <v>119.1549385790335</v>
+        <v>1212.892468601685</v>
       </c>
       <c r="S2">
-        <v>0.0195155628301009</v>
+        <v>0.02043129786354298</v>
       </c>
       <c r="T2">
-        <v>0.0195155628301009</v>
+        <v>0.02043129786354298</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.03232220154138</v>
+        <v>7.331211666666666</v>
       </c>
       <c r="H3">
-        <v>7.03232220154138</v>
+        <v>21.993635</v>
       </c>
       <c r="I3">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366964</v>
       </c>
       <c r="J3">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366965</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P3">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q3">
-        <v>577.7479129489626</v>
+        <v>605.8758061616137</v>
       </c>
       <c r="R3">
-        <v>577.7479129489626</v>
+        <v>5452.882255454524</v>
       </c>
       <c r="S3">
-        <v>0.09462533260958018</v>
+        <v>0.09185436010206313</v>
       </c>
       <c r="T3">
-        <v>0.09462533260958018</v>
+        <v>0.09185436010206315</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.03232220154138</v>
+        <v>7.331211666666666</v>
       </c>
       <c r="H4">
-        <v>7.03232220154138</v>
+        <v>21.993635</v>
       </c>
       <c r="I4">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366964</v>
       </c>
       <c r="J4">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366965</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N4">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O4">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P4">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q4">
-        <v>639.4680434263689</v>
+        <v>668.9803713576276</v>
       </c>
       <c r="R4">
-        <v>639.4680434263689</v>
+        <v>6020.823342218649</v>
       </c>
       <c r="S4">
-        <v>0.1047340456732433</v>
+        <v>0.1014213858797068</v>
       </c>
       <c r="T4">
-        <v>0.1047340456732433</v>
+        <v>0.1014213858797068</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.03232220154138</v>
+        <v>7.331211666666666</v>
       </c>
       <c r="H5">
-        <v>7.03232220154138</v>
+        <v>21.993635</v>
       </c>
       <c r="I5">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366964</v>
       </c>
       <c r="J5">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366965</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N5">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O5">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P5">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q5">
-        <v>550.5947604840038</v>
+        <v>595.9428745487827</v>
       </c>
       <c r="R5">
-        <v>550.5947604840038</v>
+        <v>5363.485870939045</v>
       </c>
       <c r="S5">
-        <v>0.09017810566888793</v>
+        <v>0.09034846884851672</v>
       </c>
       <c r="T5">
-        <v>0.09017810566888793</v>
+        <v>0.09034846884851673</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.03232220154138</v>
+        <v>7.331211666666666</v>
       </c>
       <c r="H6">
-        <v>7.03232220154138</v>
+        <v>21.993635</v>
       </c>
       <c r="I6">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366964</v>
       </c>
       <c r="J6">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366965</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N6">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O6">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P6">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q6">
-        <v>92.80011384479491</v>
+        <v>106.6996984589128</v>
       </c>
       <c r="R6">
-        <v>92.80011384479491</v>
+        <v>960.2972861302148</v>
       </c>
       <c r="S6">
-        <v>0.01519908846394456</v>
+        <v>0.01617630614286686</v>
       </c>
       <c r="T6">
-        <v>0.01519908846394456</v>
+        <v>0.01617630614286686</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>7.24559775085746</v>
+        <v>0.1628146666666667</v>
       </c>
       <c r="H7">
-        <v>7.24559775085746</v>
+        <v>0.488444</v>
       </c>
       <c r="I7">
-        <v>0.3340860208783424</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="J7">
-        <v>0.3340860208783424</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N7">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O7">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P7">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q7">
-        <v>122.7686573835554</v>
+        <v>2.992936865262666</v>
       </c>
       <c r="R7">
-        <v>122.7686573835554</v>
+        <v>26.936431787364</v>
       </c>
       <c r="S7">
-        <v>0.02010742882592942</v>
+        <v>0.0004537469524096581</v>
       </c>
       <c r="T7">
-        <v>0.02010742882592942</v>
+        <v>0.000453746952409658</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>7.24559775085746</v>
+        <v>0.1628146666666667</v>
       </c>
       <c r="H8">
-        <v>7.24559775085746</v>
+        <v>0.488444</v>
       </c>
       <c r="I8">
-        <v>0.3340860208783424</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="J8">
-        <v>0.3340860208783424</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P8">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q8">
-        <v>595.2697926309546</v>
+        <v>13.45554758296222</v>
       </c>
       <c r="R8">
-        <v>595.2697926309546</v>
+        <v>121.09992824666</v>
       </c>
       <c r="S8">
-        <v>0.09749512003017101</v>
+        <v>0.002039940694918877</v>
       </c>
       <c r="T8">
-        <v>0.09749512003017101</v>
+        <v>0.002039940694918877</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>7.24559775085746</v>
+        <v>0.1628146666666667</v>
       </c>
       <c r="H9">
-        <v>7.24559775085746</v>
+        <v>0.488444</v>
       </c>
       <c r="I9">
-        <v>0.3340860208783424</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="J9">
-        <v>0.3340860208783424</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N9">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O9">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P9">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q9">
-        <v>658.8617649202369</v>
+        <v>14.85700060528444</v>
       </c>
       <c r="R9">
-        <v>658.8617649202369</v>
+        <v>133.71300544756</v>
       </c>
       <c r="S9">
-        <v>0.1079104091109368</v>
+        <v>0.00225240927225661</v>
       </c>
       <c r="T9">
-        <v>0.1079104091109368</v>
+        <v>0.00225240927225661</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>7.24559775085746</v>
+        <v>0.1628146666666667</v>
       </c>
       <c r="H10">
-        <v>7.24559775085746</v>
+        <v>0.488444</v>
       </c>
       <c r="I10">
-        <v>0.3340860208783424</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="J10">
-        <v>0.3340860208783424</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N10">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O10">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P10">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q10">
-        <v>567.2931421319669</v>
+        <v>13.23495281321644</v>
       </c>
       <c r="R10">
-        <v>567.2931421319669</v>
+        <v>119.114575318948</v>
       </c>
       <c r="S10">
-        <v>0.09291301804514396</v>
+        <v>0.002006497221502717</v>
       </c>
       <c r="T10">
-        <v>0.09291301804514396</v>
+        <v>0.002006497221502717</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>7.24559775085746</v>
+        <v>0.1628146666666667</v>
       </c>
       <c r="H11">
-        <v>7.24559775085746</v>
+        <v>0.488444</v>
       </c>
       <c r="I11">
-        <v>0.3340860208783424</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="J11">
-        <v>0.3340860208783424</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N11">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O11">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P11">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q11">
-        <v>95.61454621714914</v>
+        <v>2.369632282888444</v>
       </c>
       <c r="R11">
-        <v>95.61454621714914</v>
+        <v>21.326690545996</v>
       </c>
       <c r="S11">
-        <v>0.01566004486616131</v>
+        <v>0.0003592502866236737</v>
       </c>
       <c r="T11">
-        <v>0.01566004486616131</v>
+        <v>0.0003592502866236737</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.07146335244669</v>
+        <v>7.402569</v>
       </c>
       <c r="H12">
-        <v>6.07146335244669</v>
+        <v>22.207707</v>
       </c>
       <c r="I12">
-        <v>0.2799480597839635</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="J12">
-        <v>0.2799480597839635</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N12">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O12">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P12">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q12">
-        <v>102.8742458198332</v>
+        <v>136.077554383413</v>
       </c>
       <c r="R12">
-        <v>102.8742458198332</v>
+        <v>1224.697989450717</v>
       </c>
       <c r="S12">
-        <v>0.01684906082650161</v>
+        <v>0.02063016307141992</v>
       </c>
       <c r="T12">
-        <v>0.01684906082650161</v>
+        <v>0.02063016307141992</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.07146335244669</v>
+        <v>7.402569</v>
       </c>
       <c r="H13">
-        <v>6.07146335244669</v>
+        <v>22.207707</v>
       </c>
       <c r="I13">
-        <v>0.2799480597839635</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="J13">
-        <v>0.2799480597839635</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N13">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O13">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P13">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q13">
-        <v>498.8075318354064</v>
+        <v>611.7730144028449</v>
       </c>
       <c r="R13">
-        <v>498.8075318354064</v>
+        <v>5505.957129625604</v>
       </c>
       <c r="S13">
-        <v>0.08169623385945256</v>
+        <v>0.09274841179364431</v>
       </c>
       <c r="T13">
-        <v>0.08169623385945256</v>
+        <v>0.09274841179364431</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.07146335244669</v>
+        <v>7.402569</v>
       </c>
       <c r="H14">
-        <v>6.07146335244669</v>
+        <v>22.207707</v>
       </c>
       <c r="I14">
-        <v>0.2799480597839635</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="J14">
-        <v>0.2799480597839635</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N14">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O14">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P14">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q14">
-        <v>552.0945541819742</v>
+        <v>675.49179914377</v>
       </c>
       <c r="R14">
-        <v>552.0945541819742</v>
+        <v>6079.42619229393</v>
       </c>
       <c r="S14">
-        <v>0.09042374650001063</v>
+        <v>0.1024085568915946</v>
       </c>
       <c r="T14">
-        <v>0.09042374650001063</v>
+        <v>0.1024085568915946</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.07146335244669</v>
+        <v>7.402569</v>
       </c>
       <c r="H15">
-        <v>6.07146335244669</v>
+        <v>22.207707</v>
       </c>
       <c r="I15">
-        <v>0.2799480597839635</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="J15">
-        <v>0.2799480597839635</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N15">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O15">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P15">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q15">
-        <v>475.3644407241573</v>
+        <v>601.743401975941</v>
       </c>
       <c r="R15">
-        <v>475.3644407241573</v>
+        <v>5415.690617783469</v>
       </c>
       <c r="S15">
-        <v>0.07785665219402368</v>
+        <v>0.091227863156158</v>
       </c>
       <c r="T15">
-        <v>0.07785665219402368</v>
+        <v>0.091227863156158</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.07146335244669</v>
+        <v>7.402569</v>
       </c>
       <c r="H16">
-        <v>6.07146335244669</v>
+        <v>22.207707</v>
       </c>
       <c r="I16">
-        <v>0.2799480597839635</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="J16">
-        <v>0.2799480597839635</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N16">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O16">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P16">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q16">
-        <v>80.12040321304633</v>
+        <v>107.738245195207</v>
       </c>
       <c r="R16">
-        <v>80.12040321304633</v>
+        <v>969.644206756863</v>
       </c>
       <c r="S16">
-        <v>0.01312236640397508</v>
+        <v>0.01633375597817675</v>
       </c>
       <c r="T16">
-        <v>0.01312236640397508</v>
+        <v>0.01633375597817675</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.33843748995494</v>
+        <v>6.381863666666667</v>
       </c>
       <c r="H17">
-        <v>1.33843748995494</v>
+        <v>19.145591</v>
       </c>
       <c r="I17">
-        <v>0.0617137840919371</v>
+        <v>0.2787637163494569</v>
       </c>
       <c r="J17">
-        <v>0.0617137840919371</v>
+        <v>0.2787637163494568</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N17">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O17">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P17">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q17">
-        <v>22.67834611908151</v>
+        <v>117.3144620696357</v>
       </c>
       <c r="R17">
-        <v>22.67834611908151</v>
+        <v>1055.830158626721</v>
       </c>
       <c r="S17">
-        <v>0.003714329375245773</v>
+        <v>0.01778556716498059</v>
       </c>
       <c r="T17">
-        <v>0.003714329375245773</v>
+        <v>0.01778556716498058</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.33843748995494</v>
+        <v>6.381863666666667</v>
       </c>
       <c r="H18">
-        <v>1.33843748995494</v>
+        <v>19.145591</v>
       </c>
       <c r="I18">
-        <v>0.0617137840919371</v>
+        <v>0.2787637163494569</v>
       </c>
       <c r="J18">
-        <v>0.0617137840919371</v>
+        <v>0.2787637163494568</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N18">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O18">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P18">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q18">
-        <v>109.9607561019635</v>
+        <v>527.4185182015405</v>
       </c>
       <c r="R18">
-        <v>109.9607561019635</v>
+        <v>4746.766663813864</v>
       </c>
       <c r="S18">
-        <v>0.01800971130650954</v>
+        <v>0.07995977063731481</v>
       </c>
       <c r="T18">
-        <v>0.01800971130650954</v>
+        <v>0.0799597706373148</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.33843748995494</v>
+        <v>6.381863666666667</v>
       </c>
       <c r="H19">
-        <v>1.33843748995494</v>
+        <v>19.145591</v>
       </c>
       <c r="I19">
-        <v>0.0617137840919371</v>
+        <v>0.2787637163494569</v>
       </c>
       <c r="J19">
-        <v>0.0617137840919371</v>
+        <v>0.2787637163494568</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N19">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O19">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P19">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q19">
-        <v>121.7077344326442</v>
+        <v>582.3514201741211</v>
       </c>
       <c r="R19">
-        <v>121.7077344326442</v>
+        <v>5241.16278156709</v>
       </c>
       <c r="S19">
-        <v>0.019933667597454</v>
+        <v>0.08828792387916057</v>
       </c>
       <c r="T19">
-        <v>0.019933667597454</v>
+        <v>0.08828792387916055</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.33843748995494</v>
+        <v>6.381863666666667</v>
       </c>
       <c r="H20">
-        <v>1.33843748995494</v>
+        <v>19.145591</v>
       </c>
       <c r="I20">
-        <v>0.0617137840919371</v>
+        <v>0.2787637163494569</v>
       </c>
       <c r="J20">
-        <v>0.0617137840919371</v>
+        <v>0.2787637163494568</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N20">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O20">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P20">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q20">
-        <v>104.7927907858127</v>
+        <v>518.7718417385441</v>
       </c>
       <c r="R20">
-        <v>104.7927907858127</v>
+        <v>4668.946575646897</v>
       </c>
       <c r="S20">
-        <v>0.01716328603002612</v>
+        <v>0.07864888328145586</v>
       </c>
       <c r="T20">
-        <v>0.01716328603002612</v>
+        <v>0.07864888328145585</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6.381863666666667</v>
+      </c>
+      <c r="H21">
+        <v>19.145591</v>
+      </c>
+      <c r="I21">
+        <v>0.2787637163494569</v>
+      </c>
+      <c r="J21">
+        <v>0.2787637163494568</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>14.55416966666667</v>
+      </c>
+      <c r="N21">
+        <v>43.662509</v>
+      </c>
+      <c r="O21">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="P21">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="Q21">
+        <v>92.88272659420211</v>
+      </c>
+      <c r="R21">
+        <v>835.9445393478189</v>
+      </c>
+      <c r="S21">
+        <v>0.01408157138654509</v>
+      </c>
+      <c r="T21">
+        <v>0.01408157138654508</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.614992666666667</v>
+      </c>
+      <c r="H22">
+        <v>4.844977999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="J22">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>18.382477</v>
+      </c>
+      <c r="N22">
+        <v>55.147431</v>
+      </c>
+      <c r="O22">
+        <v>0.06380158579420245</v>
+      </c>
+      <c r="P22">
+        <v>0.06380158579420243</v>
+      </c>
+      <c r="Q22">
+        <v>29.68756555016866</v>
+      </c>
+      <c r="R22">
+        <v>267.188089951518</v>
+      </c>
+      <c r="S22">
+        <v>0.004500810741849302</v>
+      </c>
+      <c r="T22">
+        <v>0.004500810741849301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.614992666666667</v>
+      </c>
+      <c r="H23">
+        <v>4.844977999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="J23">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>82.64333833333332</v>
+      </c>
+      <c r="N23">
+        <v>247.930015</v>
+      </c>
+      <c r="O23">
+        <v>0.2868370808239535</v>
+      </c>
+      <c r="P23">
+        <v>0.2868370808239535</v>
+      </c>
+      <c r="Q23">
+        <v>133.4683853571855</v>
+      </c>
+      <c r="R23">
+        <v>1201.21546821467</v>
+      </c>
+      <c r="S23">
+        <v>0.02023459759601237</v>
+      </c>
+      <c r="T23">
+        <v>0.02023459759601237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.614992666666667</v>
+      </c>
+      <c r="H24">
+        <v>4.844977999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="J24">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>91.25099666666667</v>
+      </c>
+      <c r="N24">
+        <v>273.75299</v>
+      </c>
+      <c r="O24">
+        <v>0.3167123936907314</v>
+      </c>
+      <c r="P24">
+        <v>0.3167123936907314</v>
+      </c>
+      <c r="Q24">
+        <v>147.3696904426911</v>
+      </c>
+      <c r="R24">
+        <v>1326.32721398422</v>
+      </c>
+      <c r="S24">
+        <v>0.02234211776801288</v>
+      </c>
+      <c r="T24">
+        <v>0.02234211776801288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.33843748995494</v>
-      </c>
-      <c r="H21">
-        <v>1.33843748995494</v>
-      </c>
-      <c r="I21">
-        <v>0.0617137840919371</v>
-      </c>
-      <c r="J21">
-        <v>0.0617137840919371</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>13.1962261092722</v>
-      </c>
-      <c r="N21">
-        <v>13.1962261092722</v>
-      </c>
-      <c r="O21">
-        <v>0.04687428951678264</v>
-      </c>
-      <c r="P21">
-        <v>0.04687428951678264</v>
-      </c>
-      <c r="Q21">
-        <v>17.66232375057213</v>
-      </c>
-      <c r="R21">
-        <v>17.66232375057213</v>
-      </c>
-      <c r="S21">
-        <v>0.002892789782701674</v>
-      </c>
-      <c r="T21">
-        <v>0.002892789782701674</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.614992666666667</v>
+      </c>
+      <c r="H25">
+        <v>4.844977999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="J25">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>81.28845566666666</v>
+      </c>
+      <c r="N25">
+        <v>243.865367</v>
+      </c>
+      <c r="O25">
+        <v>0.2821345773094157</v>
+      </c>
+      <c r="P25">
+        <v>0.2821345773094157</v>
+      </c>
+      <c r="Q25">
+        <v>131.2802597863251</v>
+      </c>
+      <c r="R25">
+        <v>1181.522338076926</v>
+      </c>
+      <c r="S25">
+        <v>0.01990286480178237</v>
+      </c>
+      <c r="T25">
+        <v>0.01990286480178237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.614992666666667</v>
+      </c>
+      <c r="H26">
+        <v>4.844977999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="J26">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>14.55416966666667</v>
+      </c>
+      <c r="N26">
+        <v>43.662509</v>
+      </c>
+      <c r="O26">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="P26">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="Q26">
+        <v>23.50487728108911</v>
+      </c>
+      <c r="R26">
+        <v>211.543895529802</v>
+      </c>
+      <c r="S26">
+        <v>0.003563478587484734</v>
+      </c>
+      <c r="T26">
+        <v>0.003563478587484733</v>
       </c>
     </row>
   </sheetData>
